--- a/medicine/Enfance/Joel_Franz_Rosell/Joel_Franz_Rosell.xlsx
+++ b/medicine/Enfance/Joel_Franz_Rosell/Joel_Franz_Rosell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joel Franz Rosell, né à Cienfuegos (Cuba), en 1954, est un auteur, illustrateur et animateur littéraire cubain.
 </t>
@@ -511,14 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Cuba en 1954, il obtient une maîtrise en Langue et littératures hispano-américaines à l'Université Centrale de Las Villas (Cuba, 1979) et commence à travailler comme animateur littéraire à Santa Clara puis à Santiago de Cuba et à La Havane. Il commence à publier en 1974, obtient son premier prix littéraire d'importance au Encuentro Nacional de Talleres Literarios (rencontre national d'auteurs en herbe) en 1979[Lequel ?] et publie son premier livre en 1983. Pendant ces années il a aussi travaillé brièvement comme enseignant et surtout comme bibliothécaire, comme journaliste culturel et comme auteur de feuilletons à Radio Progreso (La Havane)[1]. 
-En 1989 il s'installe au Brésil puis au Danemark. En 1994 il commence son premier séjour en France et obtient la nationalité française. Il est diplômé d'un master en Littérature hispano-américaine par l'Université de la Sorbonne (1997) et l'année suivant publie son premier livre français. [1] Il travaille comme journaliste à Radio France Internationale et comme professeur à l’Université de Marne-la-Vallée. En 2000 il part pour quatre ans en Argentine. À son retour en France, il s’installe à Paris et se consacre à l’écriture, l’illustration et les animations littéraires.https://www.lanouvellerepublique.fr/loir-et-cher/commune/saint-amand-longpre/un-ecrivain-cubain-au-college
-Auteur d'une trentaine de livres pour la jeunesse, son œuvre est essentiellement publiée en Espagne, à Cuba, en Argentine, en Colombie, au Mexique et en France, dont certains ont été traduits en anglais, basque, catalan, chinois, coréen, galicien, italien, japonais, portugais. Il est à ce jour le seul auteur cubain pour la jeunesse publié en France (douze livres dont certains sont parus en français avant de connaître une édition dans sa langue maternelle). Il a développé une activité de recherche, réflexion et critique du livre pour la jeunesse présentant des conférences dans différents congrès internationaux en Europe et Amérique Latine. Il a publié un essai et près de 200 articles dans des périodiques et sites web d’Europe, d’Amérique Latine, des États-Unis et de Chine[2]. Il a illustré dix de ses livres, publiés en France, Cuba, l'Espagne et la Colombie. 
-[2] 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Cuba en 1954, il obtient une maîtrise en Langue et littératures hispano-américaines à l'Université Centrale de Las Villas (Cuba, 1979) et commence à travailler comme animateur littéraire à Santa Clara puis à Santiago de Cuba et à La Havane. Il commence à publier en 1974, obtient son premier prix littéraire d'importance au Encuentro Nacional de Talleres Literarios (rencontre national d'auteurs en herbe) en 1979[Lequel ?] et publie son premier livre en 1983. Pendant ces années il a aussi travaillé brièvement comme enseignant et surtout comme bibliothécaire, comme journaliste culturel et comme auteur de feuilletons à Radio Progreso (La Havane). 
+En 1989 il s'installe au Brésil puis au Danemark. En 1994 il commence son premier séjour en France et obtient la nationalité française. Il est diplômé d'un master en Littérature hispano-américaine par l'Université de la Sorbonne (1997) et l'année suivant publie son premier livre français.  Il travaille comme journaliste à Radio France Internationale et comme professeur à l’Université de Marne-la-Vallée. En 2000 il part pour quatre ans en Argentine. À son retour en France, il s’installe à Paris et se consacre à l’écriture, l’illustration et les animations littéraires.https://www.lanouvellerepublique.fr/loir-et-cher/commune/saint-amand-longpre/un-ecrivain-cubain-au-college
+Auteur d'une trentaine de livres pour la jeunesse, son œuvre est essentiellement publiée en Espagne, à Cuba, en Argentine, en Colombie, au Mexique et en France, dont certains ont été traduits en anglais, basque, catalan, chinois, coréen, galicien, italien, japonais, portugais. Il est à ce jour le seul auteur cubain pour la jeunesse publié en France (douze livres dont certains sont parus en français avant de connaître une édition dans sa langue maternelle). Il a développé une activité de recherche, réflexion et critique du livre pour la jeunesse présentant des conférences dans différents congrès internationaux en Europe et Amérique Latine. Il a publié un essai et près de 200 articles dans des périodiques et sites web d’Europe, d’Amérique Latine, des États-Unis et de Chine. Il a illustré dix de ses livres, publiés en France, Cuba, l'Espagne et la Colombie. 
 Son travail a été reconnu par des nombreux prix à Cuba, l'Espagne, la France, l'Allemagne, l'Argentine; le Venezuela.  
-Depuis le milieu des années 70 il coordonne des ateliers d’écriture pour enfants et adultes et il a développé des stratégies de promotion de la lecture y compris en langue étrangère[3].
+Depuis le milieu des années 70 il coordonne des ateliers d’écriture pour enfants et adultes et il a développé des stratégies de promotion de la lecture y compris en langue étrangère.
 </t>
         </is>
       </c>
@@ -549,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>En langue française
-Les aventuriers du cerf-volant, Paris, Hachette, 1998. Roman fantastique
+          <t>En langue française</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les aventuriers du cerf-volant, Paris, Hachette, 1998. Roman fantastique
 Cuba, destination trésor, Paris, Hachette, 2000. Roman d'aventure contemporaine
 Malicia Horribla Pouah, la pire des sorcières, Paris, Hachette, 2001. Roman fantastique
 La légende de Taïta Osongo, Cayenne, Ibis Rouge, 2004. Saint-Denis de La Réunion; 2017. Roman fantastique et historique.
@@ -561,9 +579,43 @@
 Petit Chat et les vacances, Amboise, HongFei Cultures, 2016. Album
 Petit Chat et la neige, Amboise, HongFei Cultures, 2016. Album
 La légende de Taïta Osongo, nouvelle version avec illustrations de l'auteur. Saint-Denis de La Réunion, 2017. Roman fantastique et historique.
-Le chemin de la forêt, Paris, 2023. Illustrations de l'auteur. Conte d'auteur.
-En langue espagnole (sélection)[3]
-El secreto del colmillo colgante, La Havane, Gente Nueva, 1983. Polar jeunesse.
+Le chemin de la forêt, Paris, 2023. Illustrations de l'auteur. Conte d'auteur.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Joel_Franz_Rosell</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joel_Franz_Rosell</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En langue espagnole (sélection)[3]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>El secreto del colmillo colgante, La Havane, Gente Nueva, 1983. Polar jeunesse.
 Los cuentos del mago y el mago del cuento, Ediciones de la Torre, Madrid, 1994. Histoires. Traduit en portugais.
 Aventuras de Rosa de los Vientos y Juan Perico el de los Palotes, Santa Clara. Capiro, 1996; Barcelona. El Arca, 1996; Buenos Aires. Alfaguara, 2004. Roman fantastique. Traduit en français (Hachette, 1998).
 Vuela, Ertico, vuela, Ediciones SM. Madrid, 1997. Roman pour enfants.
@@ -599,31 +651,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Joel_Franz_Rosell</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Joel_Franz_Rosell</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Prix (sélection)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://www.escritores.org › Biografías
 Prix du conte pour enfants. Encuentro Debate Nacional (1979)
